--- a/biology/Zoologie/Allmogekor/Allmogekor.xlsx
+++ b/biology/Zoologie/Allmogekor/Allmogekor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La allmogekor est une race bovine suédoise. 
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race locale du sud de la Suède, qui a été reconnue en 1993. Cette inscription a permis de faire grimper les effectifs de 140 individus en 1994, à 485 en 2004[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race locale du sud de la Suède, qui a été reconnue en 1993. Cette inscription a permis de faire grimper les effectifs de 140 individus en 1994, à 485 en 2004.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle porte une robe pie rouge.
-Elle est relativement légère avec un poids de 475 kg pour les vaches et 650 kg pour les taureaux[1].
+Elle est relativement légère avec un poids de 475 kg pour les vaches et 650 kg pour les taureaux.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La redécouverte de cette race relique est due à un engouement pour la nature des Suédois. Elle est élevée extensivement pour des produits de qualité, par de petites exploitations agricoles, soit par des citadins en mal de nature le week-end[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La redécouverte de cette race relique est due à un engouement pour la nature des Suédois. Elle est élevée extensivement pour des produits de qualité, par de petites exploitations agricoles, soit par des citadins en mal de nature le week-end.
 </t>
         </is>
       </c>
